--- a/Carbon Dioxide Emissions Table.xlsx
+++ b/Carbon Dioxide Emissions Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregk\Documents\MATLAB\ME 705\Project 2\Project 2C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheir\OneDrive\Documents\GitHub\Thermo-Project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7947FD4C-D440-401A-9B1E-3F05269C7636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7947FD4C-D440-401A-9B1E-3F05269C7636}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5BD49BC4-C5F6-4E1F-8787-487E758A4623}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7F1CA374-2AD7-4F16-AA84-80BE85873FDA}"/>
+    <workbookView xWindow="2880" yWindow="-12630" windowWidth="17280" windowHeight="8970" xr2:uid="{7F1CA374-2AD7-4F16-AA84-80BE85873FDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,13 +453,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.3671875" customWidth="1"/>
-    <col min="4" max="4" width="14.3671875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
@@ -467,28 +467,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1.1709000000000001</v>
+        <v>1170.9000000000001</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0972999999999999</v>
+        <v>1097.3</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>1.1977</v>
+        <v>1197.7</v>
       </c>
     </row>
   </sheetData>
